--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Overdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DBEACD-B1A7-4437-96FD-DACB26113328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE080689-3491-415D-A3CB-8B114F55DED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Light emitting diode</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>AudioJack3_Switch</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>J1, J3</t>
   </si>
 </sst>
 </file>
@@ -433,9 +433,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +461,12 @@
       <color rgb="FF333333"/>
       <name val="HarmonyOS Sans SC"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -491,11 +497,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,15 +786,15 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -814,19 +821,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
@@ -856,7 +863,7 @@
         <v>9.0300000000000005E-2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
@@ -886,7 +893,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
@@ -916,7 +923,7 @@
         <v>0.15239999999999998</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -946,14 +953,14 @@
         <v>3.61E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1">
@@ -976,7 +983,7 @@
         <v>0.28160000000000002</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
@@ -1006,7 +1013,7 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
@@ -1036,7 +1043,7 @@
         <v>1.24E-2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
@@ -1066,7 +1073,7 @@
         <v>2.35E-2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>25</v>
@@ -1096,7 +1103,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>25</v>
@@ -1126,7 +1133,7 @@
         <v>1.46E-2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
@@ -1156,7 +1163,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
@@ -1164,19 +1171,19 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G15" s="5">
         <v>0.432</v>
@@ -1186,27 +1193,27 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G16" s="5">
         <v>4.6100000000000002E-2</v>
@@ -1216,27 +1223,27 @@
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="5">
         <v>1.44E-2</v>
@@ -1246,27 +1253,27 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="5">
         <v>5.7000000000000002E-3</v>
@@ -1276,27 +1283,27 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G19" s="5">
         <v>4.7000000000000002E-3</v>
@@ -1306,27 +1313,27 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G20" s="5">
         <v>4.7000000000000002E-3</v>
@@ -1336,27 +1343,27 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G21" s="5">
         <v>3.5999999999999999E-3</v>
@@ -1366,27 +1373,27 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G22" s="5">
         <v>1.3299999999999999E-2</v>
@@ -1396,27 +1403,27 @@
         <v>3.9899999999999998E-2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G23" s="5">
         <v>0.1792</v>
@@ -1426,27 +1433,27 @@
         <v>0.1792</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G24" s="5">
         <v>8.0999999999999996E-3</v>
@@ -1456,27 +1463,27 @@
         <v>5.67E-2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G25" s="5">
         <v>0.28000000000000003</v>
@@ -1486,27 +1493,27 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="5">
         <v>0.26</v>
@@ -1516,27 +1523,27 @@
         <v>0.26</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G27" s="5">
         <v>0.28999999999999998</v>
@@ -1546,27 +1553,27 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G28" s="5">
         <v>1.01</v>
@@ -1576,24 +1583,24 @@
         <v>1.01</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G29" s="5">
         <v>7.3200000000000001E-2</v>
@@ -1603,24 +1610,24 @@
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="5">
         <v>2.35E-2</v>
@@ -1630,21 +1637,21 @@
         <v>2.35E-2</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="5">
         <v>3.93</v>
@@ -1654,7 +1661,7 @@
         <v>3.93</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1671,26 +1678,26 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:10">
